--- a/data/TT/Team-2020.xlsx
+++ b/data/TT/Team-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B26312-D323-4BB8-8032-E7C785A95C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD6E05A-C5A8-40A6-AD2F-C69AAF2E5BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,11 +401,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1558,10 +1558,10 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -1659,20 +1659,6 @@
         <v>6</v>
       </c>
       <c r="E89">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>89</v>
-      </c>
-      <c r="D90">
-        <v>6</v>
-      </c>
-      <c r="E90">
         <v>11</v>
       </c>
     </row>

--- a/data/TT/Team-2020.xlsx
+++ b/data/TT/Team-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD6E05A-C5A8-40A6-AD2F-C69AAF2E5BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89844C6E-481C-4B2F-B3A7-5C71163A59E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,279 @@
   </si>
   <si>
     <t>coach</t>
+  </si>
+  <si>
+    <t>1-E-MAJOR</t>
+  </si>
+  <si>
+    <t>2-E-MAJOR</t>
+  </si>
+  <si>
+    <t>3-E-MAJOR</t>
+  </si>
+  <si>
+    <t>4-E-MAJOR</t>
+  </si>
+  <si>
+    <t>5-E-MAJOR</t>
+  </si>
+  <si>
+    <t>6-E-MAJOR</t>
+  </si>
+  <si>
+    <t>7-E-MAJOR</t>
+  </si>
+  <si>
+    <t>8-E-MAJOR</t>
+  </si>
+  <si>
+    <t>1-W-MAJOR</t>
+  </si>
+  <si>
+    <t>2-W-MAJOR</t>
+  </si>
+  <si>
+    <t>3-W-MAJOR</t>
+  </si>
+  <si>
+    <t>4-W-MAJOR</t>
+  </si>
+  <si>
+    <t>5-W-MAJOR</t>
+  </si>
+  <si>
+    <t>1-E-MINOR</t>
+  </si>
+  <si>
+    <t>2-E-MINOR</t>
+  </si>
+  <si>
+    <t>3-E-MINOR</t>
+  </si>
+  <si>
+    <t>4-E-MINOR</t>
+  </si>
+  <si>
+    <t>5-E-MINOR</t>
+  </si>
+  <si>
+    <t>6-E-MINOR</t>
+  </si>
+  <si>
+    <t>7-E-MINOR</t>
+  </si>
+  <si>
+    <t>8-E-MINOR</t>
+  </si>
+  <si>
+    <t>9-E-MINOR</t>
+  </si>
+  <si>
+    <t>10-E-MINOR</t>
+  </si>
+  <si>
+    <t>1-W-MINOR</t>
+  </si>
+  <si>
+    <t>2-W-MINOR</t>
+  </si>
+  <si>
+    <t>3-W-MINOR</t>
+  </si>
+  <si>
+    <t>4-W-MINOR</t>
+  </si>
+  <si>
+    <t>5-W-MINOR</t>
+  </si>
+  <si>
+    <t>6-W-MINOR</t>
+  </si>
+  <si>
+    <t>1-E-PW</t>
+  </si>
+  <si>
+    <t>2-E-PW</t>
+  </si>
+  <si>
+    <t>3-E-PW</t>
+  </si>
+  <si>
+    <t>4-E-PW</t>
+  </si>
+  <si>
+    <t>5-E-PW</t>
+  </si>
+  <si>
+    <t>6-E-PW</t>
+  </si>
+  <si>
+    <t>7-E-PW</t>
+  </si>
+  <si>
+    <t>8-E-PW</t>
+  </si>
+  <si>
+    <t>9-E-PW</t>
+  </si>
+  <si>
+    <t>1-W-PW</t>
+  </si>
+  <si>
+    <t>2-W-PW</t>
+  </si>
+  <si>
+    <t>3-W-PW</t>
+  </si>
+  <si>
+    <t>4-W-PW</t>
+  </si>
+  <si>
+    <t>5-W-PW</t>
+  </si>
+  <si>
+    <t>6-W-PW</t>
+  </si>
+  <si>
+    <t>7-W-PW</t>
+  </si>
+  <si>
+    <t>1-E-CP</t>
+  </si>
+  <si>
+    <t>2-E-CP</t>
+  </si>
+  <si>
+    <t>3-E-CP</t>
+  </si>
+  <si>
+    <t>4-E-CP</t>
+  </si>
+  <si>
+    <t>5-E-CP</t>
+  </si>
+  <si>
+    <t>6-E-CP</t>
+  </si>
+  <si>
+    <t>7-E-CP</t>
+  </si>
+  <si>
+    <t>8-E-CP</t>
+  </si>
+  <si>
+    <t>9-E-CP</t>
+  </si>
+  <si>
+    <t>10-E-CP</t>
+  </si>
+  <si>
+    <t>11-E-CP</t>
+  </si>
+  <si>
+    <t>12-E-CP</t>
+  </si>
+  <si>
+    <t>1-W-CP</t>
+  </si>
+  <si>
+    <t>2-W-CP</t>
+  </si>
+  <si>
+    <t>3-W-CP</t>
+  </si>
+  <si>
+    <t>4-W-CP</t>
+  </si>
+  <si>
+    <t>5-W-CP</t>
+  </si>
+  <si>
+    <t>6-W-CP</t>
+  </si>
+  <si>
+    <t>7-W-CP</t>
+  </si>
+  <si>
+    <t>8-W-CP</t>
+  </si>
+  <si>
+    <t>9-W-CP</t>
+  </si>
+  <si>
+    <t>1-E-TBALL</t>
+  </si>
+  <si>
+    <t>2-E-TBALL</t>
+  </si>
+  <si>
+    <t>3-E-TBALL</t>
+  </si>
+  <si>
+    <t>4-E-TBALL</t>
+  </si>
+  <si>
+    <t>5-E-TBALL</t>
+  </si>
+  <si>
+    <t>6-E-TBALL</t>
+  </si>
+  <si>
+    <t>7-E-TBALL</t>
+  </si>
+  <si>
+    <t>8-E-TBALL</t>
+  </si>
+  <si>
+    <t>9-E-TBALL</t>
+  </si>
+  <si>
+    <t>10-E-TBALL</t>
+  </si>
+  <si>
+    <t>1-W-TBALL</t>
+  </si>
+  <si>
+    <t>2-W-TBALL</t>
+  </si>
+  <si>
+    <t>3-W-TBALL</t>
+  </si>
+  <si>
+    <t>4-W-TBALL</t>
+  </si>
+  <si>
+    <t>5-W-TBALL</t>
+  </si>
+  <si>
+    <t>6-W-TBALL</t>
+  </si>
+  <si>
+    <t>1-ITB</t>
+  </si>
+  <si>
+    <t>2-ITB</t>
+  </si>
+  <si>
+    <t>3-ITB</t>
+  </si>
+  <si>
+    <t>4-ITB</t>
+  </si>
+  <si>
+    <t>5-ITB</t>
+  </si>
+  <si>
+    <t>6-ITB</t>
+  </si>
+  <si>
+    <t>7-ITB</t>
+  </si>
+  <si>
+    <t>8-ITB</t>
+  </si>
+  <si>
+    <t>9-ITB</t>
   </si>
 </sst>
 </file>
@@ -401,14 +674,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -437,6 +713,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -451,6 +730,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -465,6 +747,9 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -479,6 +764,9 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -492,6 +780,9 @@
       </c>
       <c r="B6">
         <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -507,6 +798,9 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -521,6 +815,9 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -535,6 +832,9 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -549,6 +849,9 @@
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -563,6 +866,9 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -577,6 +883,9 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -591,6 +900,9 @@
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -605,6 +917,9 @@
       <c r="B14">
         <v>13</v>
       </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -619,6 +934,9 @@
       <c r="B15">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
       <c r="D15">
         <v>2</v>
       </c>
@@ -633,6 +951,9 @@
       <c r="B16">
         <v>15</v>
       </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
       <c r="D16">
         <v>2</v>
       </c>
@@ -647,6 +968,9 @@
       <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
       <c r="D17">
         <v>2</v>
       </c>
@@ -661,6 +985,9 @@
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
       <c r="D18">
         <v>2</v>
       </c>
@@ -675,6 +1002,9 @@
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
       <c r="D19">
         <v>2</v>
       </c>
@@ -689,6 +1019,9 @@
       <c r="B20">
         <v>19</v>
       </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
       <c r="D20">
         <v>2</v>
       </c>
@@ -703,6 +1036,9 @@
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
       <c r="D21">
         <v>2</v>
       </c>
@@ -717,6 +1053,9 @@
       <c r="B22">
         <v>21</v>
       </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
       <c r="D22">
         <v>2</v>
       </c>
@@ -731,6 +1070,9 @@
       <c r="B23">
         <v>22</v>
       </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
       <c r="D23">
         <v>2</v>
       </c>
@@ -745,6 +1087,9 @@
       <c r="B24">
         <v>23</v>
       </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
       <c r="D24">
         <v>2</v>
       </c>
@@ -759,6 +1104,9 @@
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
       <c r="D25">
         <v>2</v>
       </c>
@@ -773,6 +1121,9 @@
       <c r="B26">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
       <c r="D26">
         <v>2</v>
       </c>
@@ -787,6 +1138,9 @@
       <c r="B27">
         <v>26</v>
       </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
       <c r="D27">
         <v>2</v>
       </c>
@@ -801,6 +1155,9 @@
       <c r="B28">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
       <c r="D28">
         <v>2</v>
       </c>
@@ -815,6 +1172,9 @@
       <c r="B29">
         <v>28</v>
       </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
       <c r="D29">
         <v>2</v>
       </c>
@@ -829,6 +1189,9 @@
       <c r="B30">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
       <c r="D30">
         <v>2</v>
       </c>
@@ -843,6 +1206,9 @@
       <c r="B31">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
       <c r="D31">
         <v>3</v>
       </c>
@@ -857,6 +1223,9 @@
       <c r="B32">
         <v>31</v>
       </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
       <c r="D32">
         <v>3</v>
       </c>
@@ -871,6 +1240,9 @@
       <c r="B33">
         <v>32</v>
       </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
       <c r="D33">
         <v>3</v>
       </c>
@@ -885,6 +1257,9 @@
       <c r="B34">
         <v>33</v>
       </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
       <c r="D34">
         <v>3</v>
       </c>
@@ -899,6 +1274,9 @@
       <c r="B35">
         <v>34</v>
       </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
       <c r="D35">
         <v>3</v>
       </c>
@@ -913,6 +1291,9 @@
       <c r="B36">
         <v>35</v>
       </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
       <c r="D36">
         <v>3</v>
       </c>
@@ -927,6 +1308,9 @@
       <c r="B37">
         <v>36</v>
       </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
       <c r="D37">
         <v>3</v>
       </c>
@@ -941,6 +1325,9 @@
       <c r="B38">
         <v>37</v>
       </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
       <c r="D38">
         <v>3</v>
       </c>
@@ -955,6 +1342,9 @@
       <c r="B39">
         <v>38</v>
       </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
       <c r="D39">
         <v>3</v>
       </c>
@@ -969,6 +1359,9 @@
       <c r="B40">
         <v>39</v>
       </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
       <c r="D40">
         <v>3</v>
       </c>
@@ -983,6 +1376,9 @@
       <c r="B41">
         <v>40</v>
       </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
       <c r="D41">
         <v>3</v>
       </c>
@@ -997,6 +1393,9 @@
       <c r="B42">
         <v>41</v>
       </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
       <c r="D42">
         <v>3</v>
       </c>
@@ -1011,6 +1410,9 @@
       <c r="B43">
         <v>42</v>
       </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
       <c r="D43">
         <v>3</v>
       </c>
@@ -1025,6 +1427,9 @@
       <c r="B44">
         <v>43</v>
       </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
       <c r="D44">
         <v>3</v>
       </c>
@@ -1039,6 +1444,9 @@
       <c r="B45">
         <v>44</v>
       </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
       <c r="D45">
         <v>3</v>
       </c>
@@ -1053,11 +1461,14 @@
       <c r="B46">
         <v>45</v>
       </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1067,6 +1478,9 @@
       <c r="B47">
         <v>46</v>
       </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
       <c r="D47">
         <v>4</v>
       </c>
@@ -1081,6 +1495,9 @@
       <c r="B48">
         <v>47</v>
       </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
       <c r="D48">
         <v>4</v>
       </c>
@@ -1095,6 +1512,9 @@
       <c r="B49">
         <v>48</v>
       </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
       <c r="D49">
         <v>4</v>
       </c>
@@ -1109,6 +1529,9 @@
       <c r="B50">
         <v>49</v>
       </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
       <c r="D50">
         <v>4</v>
       </c>
@@ -1123,6 +1546,9 @@
       <c r="B51">
         <v>50</v>
       </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
       <c r="D51">
         <v>4</v>
       </c>
@@ -1137,6 +1563,9 @@
       <c r="B52">
         <v>51</v>
       </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
       <c r="D52">
         <v>4</v>
       </c>
@@ -1151,6 +1580,9 @@
       <c r="B53">
         <v>52</v>
       </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
       <c r="D53">
         <v>4</v>
       </c>
@@ -1165,6 +1597,9 @@
       <c r="B54">
         <v>53</v>
       </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
       <c r="D54">
         <v>4</v>
       </c>
@@ -1179,6 +1614,9 @@
       <c r="B55">
         <v>54</v>
       </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
       <c r="D55">
         <v>4</v>
       </c>
@@ -1193,6 +1631,9 @@
       <c r="B56">
         <v>55</v>
       </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
       <c r="D56">
         <v>4</v>
       </c>
@@ -1207,11 +1648,14 @@
       <c r="B57">
         <v>56</v>
       </c>
+      <c r="C57" t="s">
+        <v>61</v>
+      </c>
       <c r="D57">
         <v>4</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,11 +1665,14 @@
       <c r="B58">
         <v>57</v>
       </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
       <c r="D58">
         <v>4</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1235,6 +1682,9 @@
       <c r="B59">
         <v>58</v>
       </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
       <c r="D59">
         <v>4</v>
       </c>
@@ -1249,6 +1699,9 @@
       <c r="B60">
         <v>59</v>
       </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
       <c r="D60">
         <v>4</v>
       </c>
@@ -1263,6 +1716,9 @@
       <c r="B61">
         <v>60</v>
       </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
       <c r="D61">
         <v>4</v>
       </c>
@@ -1277,6 +1733,9 @@
       <c r="B62">
         <v>61</v>
       </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
       <c r="D62">
         <v>4</v>
       </c>
@@ -1291,6 +1750,9 @@
       <c r="B63">
         <v>62</v>
       </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
       <c r="D63">
         <v>4</v>
       </c>
@@ -1305,6 +1767,9 @@
       <c r="B64">
         <v>63</v>
       </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
       <c r="D64">
         <v>4</v>
       </c>
@@ -1319,6 +1784,9 @@
       <c r="B65">
         <v>64</v>
       </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
       <c r="D65">
         <v>4</v>
       </c>
@@ -1333,11 +1801,14 @@
       <c r="B66">
         <v>65</v>
       </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
       <c r="D66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1347,11 +1818,14 @@
       <c r="B67">
         <v>66</v>
       </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
       <c r="D67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1361,6 +1835,9 @@
       <c r="B68">
         <v>67</v>
       </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
       <c r="D68">
         <v>5</v>
       </c>
@@ -1375,6 +1852,9 @@
       <c r="B69">
         <v>68</v>
       </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
       <c r="D69">
         <v>5</v>
       </c>
@@ -1389,6 +1869,9 @@
       <c r="B70">
         <v>69</v>
       </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
       <c r="D70">
         <v>5</v>
       </c>
@@ -1403,6 +1886,9 @@
       <c r="B71">
         <v>70</v>
       </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
       <c r="D71">
         <v>5</v>
       </c>
@@ -1417,6 +1903,9 @@
       <c r="B72">
         <v>71</v>
       </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
       <c r="D72">
         <v>5</v>
       </c>
@@ -1431,6 +1920,9 @@
       <c r="B73">
         <v>72</v>
       </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
       <c r="D73">
         <v>5</v>
       </c>
@@ -1445,6 +1937,9 @@
       <c r="B74">
         <v>73</v>
       </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
       <c r="D74">
         <v>5</v>
       </c>
@@ -1459,6 +1954,9 @@
       <c r="B75">
         <v>74</v>
       </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
       <c r="D75">
         <v>5</v>
       </c>
@@ -1473,11 +1971,14 @@
       <c r="B76">
         <v>75</v>
       </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
       <c r="D76">
         <v>5</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1487,11 +1988,14 @@
       <c r="B77">
         <v>76</v>
       </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
       <c r="D77">
         <v>5</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -1501,6 +2005,9 @@
       <c r="B78">
         <v>77</v>
       </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
       <c r="D78">
         <v>5</v>
       </c>
@@ -1515,6 +2022,9 @@
       <c r="B79">
         <v>78</v>
       </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
       <c r="D79">
         <v>5</v>
       </c>
@@ -1529,6 +2039,9 @@
       <c r="B80">
         <v>79</v>
       </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
       <c r="D80">
         <v>5</v>
       </c>
@@ -1543,6 +2056,9 @@
       <c r="B81">
         <v>80</v>
       </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
       <c r="D81">
         <v>5</v>
       </c>
@@ -1557,11 +2073,14 @@
       <c r="B82">
         <v>81</v>
       </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
       <c r="D82">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -1571,11 +2090,14 @@
       <c r="B83">
         <v>82</v>
       </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
       <c r="D83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -1585,6 +2107,9 @@
       <c r="B84">
         <v>83</v>
       </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
       <c r="D84">
         <v>6</v>
       </c>
@@ -1599,6 +2124,9 @@
       <c r="B85">
         <v>84</v>
       </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
       <c r="D85">
         <v>6</v>
       </c>
@@ -1613,6 +2141,9 @@
       <c r="B86">
         <v>85</v>
       </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
       <c r="D86">
         <v>6</v>
       </c>
@@ -1627,6 +2158,9 @@
       <c r="B87">
         <v>86</v>
       </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
       <c r="D87">
         <v>6</v>
       </c>
@@ -1641,6 +2175,9 @@
       <c r="B88">
         <v>87</v>
       </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
       <c r="D88">
         <v>6</v>
       </c>
@@ -1655,10 +2192,64 @@
       <c r="B89">
         <v>88</v>
       </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
       <c r="D89">
         <v>6</v>
       </c>
       <c r="E89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
         <v>11</v>
       </c>
     </row>

--- a/data/TT/Team-2020.xlsx
+++ b/data/TT/Team-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89844C6E-481C-4B2F-B3A7-5C71163A59E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430E8136-7AD7-412C-A859-D020846307F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19632" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
   <si>
     <t>id</t>
   </si>
@@ -50,277 +50,388 @@
     <t>coach</t>
   </si>
   <si>
-    <t>1-E-MAJOR</t>
-  </si>
-  <si>
-    <t>2-E-MAJOR</t>
-  </si>
-  <si>
-    <t>3-E-MAJOR</t>
-  </si>
-  <si>
-    <t>4-E-MAJOR</t>
-  </si>
-  <si>
-    <t>5-E-MAJOR</t>
-  </si>
-  <si>
-    <t>6-E-MAJOR</t>
-  </si>
-  <si>
-    <t>7-E-MAJOR</t>
-  </si>
-  <si>
-    <t>8-E-MAJOR</t>
-  </si>
-  <si>
-    <t>1-W-MAJOR</t>
-  </si>
-  <si>
-    <t>2-W-MAJOR</t>
-  </si>
-  <si>
-    <t>3-W-MAJOR</t>
-  </si>
-  <si>
-    <t>4-W-MAJOR</t>
-  </si>
-  <si>
-    <t>5-W-MAJOR</t>
-  </si>
-  <si>
-    <t>1-E-MINOR</t>
-  </si>
-  <si>
-    <t>2-E-MINOR</t>
-  </si>
-  <si>
-    <t>3-E-MINOR</t>
-  </si>
-  <si>
-    <t>4-E-MINOR</t>
-  </si>
-  <si>
-    <t>5-E-MINOR</t>
-  </si>
-  <si>
-    <t>6-E-MINOR</t>
-  </si>
-  <si>
-    <t>7-E-MINOR</t>
-  </si>
-  <si>
-    <t>8-E-MINOR</t>
-  </si>
-  <si>
-    <t>9-E-MINOR</t>
-  </si>
-  <si>
-    <t>10-E-MINOR</t>
-  </si>
-  <si>
-    <t>1-W-MINOR</t>
-  </si>
-  <si>
-    <t>2-W-MINOR</t>
-  </si>
-  <si>
-    <t>3-W-MINOR</t>
-  </si>
-  <si>
-    <t>4-W-MINOR</t>
-  </si>
-  <si>
-    <t>5-W-MINOR</t>
-  </si>
-  <si>
-    <t>6-W-MINOR</t>
-  </si>
-  <si>
-    <t>1-E-PW</t>
-  </si>
-  <si>
-    <t>2-E-PW</t>
-  </si>
-  <si>
-    <t>3-E-PW</t>
-  </si>
-  <si>
-    <t>4-E-PW</t>
-  </si>
-  <si>
-    <t>5-E-PW</t>
-  </si>
-  <si>
-    <t>6-E-PW</t>
-  </si>
-  <si>
-    <t>7-E-PW</t>
-  </si>
-  <si>
-    <t>8-E-PW</t>
-  </si>
-  <si>
-    <t>9-E-PW</t>
-  </si>
-  <si>
-    <t>1-W-PW</t>
-  </si>
-  <si>
-    <t>2-W-PW</t>
-  </si>
-  <si>
-    <t>3-W-PW</t>
-  </si>
-  <si>
-    <t>4-W-PW</t>
-  </si>
-  <si>
-    <t>5-W-PW</t>
-  </si>
-  <si>
-    <t>6-W-PW</t>
-  </si>
-  <si>
-    <t>7-W-PW</t>
-  </si>
-  <si>
-    <t>1-E-CP</t>
-  </si>
-  <si>
-    <t>2-E-CP</t>
-  </si>
-  <si>
-    <t>3-E-CP</t>
-  </si>
-  <si>
-    <t>4-E-CP</t>
-  </si>
-  <si>
-    <t>5-E-CP</t>
-  </si>
-  <si>
-    <t>6-E-CP</t>
-  </si>
-  <si>
-    <t>7-E-CP</t>
-  </si>
-  <si>
-    <t>8-E-CP</t>
-  </si>
-  <si>
-    <t>9-E-CP</t>
-  </si>
-  <si>
-    <t>10-E-CP</t>
-  </si>
-  <si>
-    <t>11-E-CP</t>
-  </si>
-  <si>
-    <t>12-E-CP</t>
-  </si>
-  <si>
-    <t>1-W-CP</t>
-  </si>
-  <si>
-    <t>2-W-CP</t>
-  </si>
-  <si>
-    <t>3-W-CP</t>
-  </si>
-  <si>
-    <t>4-W-CP</t>
-  </si>
-  <si>
-    <t>5-W-CP</t>
-  </si>
-  <si>
-    <t>6-W-CP</t>
-  </si>
-  <si>
-    <t>7-W-CP</t>
-  </si>
-  <si>
-    <t>8-W-CP</t>
-  </si>
-  <si>
-    <t>9-W-CP</t>
-  </si>
-  <si>
-    <t>1-E-TBALL</t>
-  </si>
-  <si>
-    <t>2-E-TBALL</t>
-  </si>
-  <si>
-    <t>3-E-TBALL</t>
-  </si>
-  <si>
-    <t>4-E-TBALL</t>
-  </si>
-  <si>
-    <t>5-E-TBALL</t>
-  </si>
-  <si>
-    <t>6-E-TBALL</t>
-  </si>
-  <si>
-    <t>7-E-TBALL</t>
-  </si>
-  <si>
-    <t>8-E-TBALL</t>
-  </si>
-  <si>
-    <t>9-E-TBALL</t>
-  </si>
-  <si>
-    <t>10-E-TBALL</t>
-  </si>
-  <si>
-    <t>1-W-TBALL</t>
-  </si>
-  <si>
-    <t>2-W-TBALL</t>
-  </si>
-  <si>
-    <t>3-W-TBALL</t>
-  </si>
-  <si>
-    <t>4-W-TBALL</t>
-  </si>
-  <si>
-    <t>5-W-TBALL</t>
-  </si>
-  <si>
-    <t>6-W-TBALL</t>
-  </si>
-  <si>
-    <t>1-ITB</t>
-  </si>
-  <si>
-    <t>2-ITB</t>
-  </si>
-  <si>
-    <t>3-ITB</t>
-  </si>
-  <si>
-    <t>4-ITB</t>
-  </si>
-  <si>
-    <t>5-ITB</t>
-  </si>
-  <si>
-    <t>6-ITB</t>
-  </si>
-  <si>
-    <t>7-ITB</t>
-  </si>
-  <si>
-    <t>8-ITB</t>
-  </si>
-  <si>
-    <t>9-ITB</t>
+    <t>Indians</t>
+  </si>
+  <si>
+    <t>Royals</t>
+  </si>
+  <si>
+    <t>Tigers</t>
+  </si>
+  <si>
+    <t>Yankees</t>
+  </si>
+  <si>
+    <t>Astros</t>
+  </si>
+  <si>
+    <t>Cubs</t>
+  </si>
+  <si>
+    <t>Dodgers</t>
+  </si>
+  <si>
+    <t>Mets</t>
+  </si>
+  <si>
+    <t>Cardinals</t>
+  </si>
+  <si>
+    <t>Giants</t>
+  </si>
+  <si>
+    <t>Nationals</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Red Socks</t>
+  </si>
+  <si>
+    <t>Phillies</t>
+  </si>
+  <si>
+    <t>Braves</t>
+  </si>
+  <si>
+    <t>D'Backs</t>
+  </si>
+  <si>
+    <t>Marlins</t>
+  </si>
+  <si>
+    <t>Red Sox</t>
+  </si>
+  <si>
+    <t>Brewers</t>
+  </si>
+  <si>
+    <t>Orioles</t>
+  </si>
+  <si>
+    <t>Reds</t>
+  </si>
+  <si>
+    <t>Rockies</t>
+  </si>
+  <si>
+    <t>A's</t>
+  </si>
+  <si>
+    <t>Blue Jays</t>
+  </si>
+  <si>
+    <t>Royals-E-Major</t>
+  </si>
+  <si>
+    <t>Tigers-E-Major</t>
+  </si>
+  <si>
+    <t>Yankees-E-Major</t>
+  </si>
+  <si>
+    <t>Astros-E-Major</t>
+  </si>
+  <si>
+    <t>Cubs-E-Major</t>
+  </si>
+  <si>
+    <t>Dodgers-E-Major</t>
+  </si>
+  <si>
+    <t>Mets-E-Major</t>
+  </si>
+  <si>
+    <t>Cardinals-W-Major</t>
+  </si>
+  <si>
+    <t>Giants-W-Major</t>
+  </si>
+  <si>
+    <t>Nationals-W-Major</t>
+  </si>
+  <si>
+    <t>Rangers-W-Major</t>
+  </si>
+  <si>
+    <t>Red Socks-W-Major</t>
+  </si>
+  <si>
+    <t>Astros-E-Minor</t>
+  </si>
+  <si>
+    <t>Cardinals-E-Minor</t>
+  </si>
+  <si>
+    <t>Cubs-E-Minor</t>
+  </si>
+  <si>
+    <t>Dodgers-E-Minor</t>
+  </si>
+  <si>
+    <t>Giants-E-Minor</t>
+  </si>
+  <si>
+    <t>Indians-E-Minor</t>
+  </si>
+  <si>
+    <t>Mets-E-Minor</t>
+  </si>
+  <si>
+    <t>Phillies-E-Minor</t>
+  </si>
+  <si>
+    <t>Royals-E-Minor</t>
+  </si>
+  <si>
+    <t>Tigers-E-Minor</t>
+  </si>
+  <si>
+    <t>Braves-W-Minor</t>
+  </si>
+  <si>
+    <t>D'Backs-W-Minor</t>
+  </si>
+  <si>
+    <t>Marlins-W-Minor</t>
+  </si>
+  <si>
+    <t>Nationals-W-Minor</t>
+  </si>
+  <si>
+    <t>Rangers-W-Minor</t>
+  </si>
+  <si>
+    <t>Yankees-W-Minor</t>
+  </si>
+  <si>
+    <t>Astros-E-PeeWee</t>
+  </si>
+  <si>
+    <t>Braves-E-PeeWee</t>
+  </si>
+  <si>
+    <t>Cardinals-E-PeeWee</t>
+  </si>
+  <si>
+    <t>D'Backs-E-PeeWee</t>
+  </si>
+  <si>
+    <t>Dodgers-E-PeeWee</t>
+  </si>
+  <si>
+    <t>Giants-E-PeeWee</t>
+  </si>
+  <si>
+    <t>Indians-E-PeeWee</t>
+  </si>
+  <si>
+    <t>Mets-E-PeeWee</t>
+  </si>
+  <si>
+    <t>Yankees-E-PeeWee</t>
+  </si>
+  <si>
+    <t>Cubs-W-PeeWee</t>
+  </si>
+  <si>
+    <t>Marlins-W-PeeWee</t>
+  </si>
+  <si>
+    <t>Nationals-W-PeeWee</t>
+  </si>
+  <si>
+    <t>Rangers-W-PeeWee</t>
+  </si>
+  <si>
+    <t>Red Sox-W-PeeWee</t>
+  </si>
+  <si>
+    <t>Royals-W-PeeWee</t>
+  </si>
+  <si>
+    <t>Tigers-W-PeeWee</t>
+  </si>
+  <si>
+    <t>Braves-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Brewers-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Cardinals-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Cubs-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Dodgers-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Giants-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Marlins-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Orioles-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Phillies-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Reds-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Rockies-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>Tigers-E-CoachPitch</t>
+  </si>
+  <si>
+    <t>A's-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>Astros-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>D'Backs-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>Indians-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>Mets-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>Nationals-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>Rangers-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>Red Sox-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>Yankees-W-CoachPitch</t>
+  </si>
+  <si>
+    <t>A's-E-TBall</t>
+  </si>
+  <si>
+    <t>Astros-E-TBall</t>
+  </si>
+  <si>
+    <t>Cubs-E-TBall</t>
+  </si>
+  <si>
+    <t>D'Backs-E-TBall</t>
+  </si>
+  <si>
+    <t>Dodgers-E-TBall</t>
+  </si>
+  <si>
+    <t>Giants-E-TBall</t>
+  </si>
+  <si>
+    <t>Nationals-E-TBall</t>
+  </si>
+  <si>
+    <t>Phillies-E-TBall</t>
+  </si>
+  <si>
+    <t>Rockies-E-TBall</t>
+  </si>
+  <si>
+    <t>Royals-E-TBall</t>
+  </si>
+  <si>
+    <t>Blue Jays-W-TBall</t>
+  </si>
+  <si>
+    <t>Cardinals-W-TBall</t>
+  </si>
+  <si>
+    <t>Marlins-W-TBall</t>
+  </si>
+  <si>
+    <t>Orioles-W-TBall</t>
+  </si>
+  <si>
+    <t>Rangers-W-TBall</t>
+  </si>
+  <si>
+    <t>Tigers-W-TBall</t>
+  </si>
+  <si>
+    <t>Cubs-E-ITB</t>
+  </si>
+  <si>
+    <t>2-E-ITB</t>
+  </si>
+  <si>
+    <t>3-E-ITB</t>
+  </si>
+  <si>
+    <t>4-E-ITB</t>
+  </si>
+  <si>
+    <t>5-E-ITB</t>
+  </si>
+  <si>
+    <t>6-E-ITB</t>
+  </si>
+  <si>
+    <t>7-E-ITB</t>
+  </si>
+  <si>
+    <t>8-E-ITB</t>
+  </si>
+  <si>
+    <t>9-E-ITB</t>
+  </si>
+  <si>
+    <t>Indians-E-Major</t>
+  </si>
+  <si>
+    <t>boDate</t>
+  </si>
+  <si>
+    <t>317,319,331,403,407,408,409,506</t>
+  </si>
+  <si>
+    <t>418,419,420,421</t>
+  </si>
+  <si>
+    <t>302,330,331</t>
+  </si>
+  <si>
+    <t>315,316,317</t>
+  </si>
+  <si>
+    <t>326,328,508,509</t>
+  </si>
+  <si>
+    <t>316,323,330,406,413,420,427,504,511,518</t>
+  </si>
+  <si>
+    <t>316,323,330,406,413,420,427,504,511,518,317,324,331,407,414,421,428,505,512,519,316,317,318</t>
+  </si>
+  <si>
+    <t>429,502</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>316,317</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>502,509</t>
   </si>
 </sst>
 </file>
@@ -368,9 +479,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,19 +787,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.89453125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,16 +819,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -723,15 +840,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -740,15 +857,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -756,16 +873,19 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -774,15 +894,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -791,15 +911,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -808,15 +928,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -825,15 +945,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" t="s">
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -842,15 +962,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" t="s">
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -859,15 +979,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -875,16 +995,19 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" t="s">
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -892,16 +1015,22 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>12</v>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -910,15 +1039,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>13</v>
+      <c r="B14" t="s">
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -926,16 +1055,19 @@
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>14</v>
+      <c r="B15" t="s">
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -943,16 +1075,19 @@
       <c r="E15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>15</v>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -961,15 +1096,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>16</v>
+      <c r="B17" t="s">
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -978,15 +1113,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -995,15 +1130,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>18</v>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1012,15 +1147,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>19</v>
+      <c r="B20" t="s">
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1029,15 +1164,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>20</v>
+      <c r="B21" t="s">
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1046,15 +1181,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>21</v>
+      <c r="B22" t="s">
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1063,15 +1198,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>22</v>
+      <c r="B23" t="s">
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1080,15 +1215,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>23</v>
+      <c r="B24" t="s">
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1097,15 +1232,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>24</v>
+      <c r="B25" t="s">
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1114,15 +1249,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>25</v>
+      <c r="B26" t="s">
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1130,16 +1265,22 @@
       <c r="E26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>26</v>
+      <c r="B27" t="s">
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1148,15 +1289,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>27</v>
+      <c r="B28" t="s">
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1164,16 +1305,19 @@
       <c r="E28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>28</v>
+      <c r="B29" t="s">
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1182,15 +1326,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>29</v>
+      <c r="B30" t="s">
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1199,15 +1343,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>30</v>
+      <c r="B31" t="s">
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1216,15 +1360,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>31</v>
+      <c r="B32" t="s">
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1233,15 +1377,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>32</v>
+      <c r="B33" t="s">
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1250,15 +1394,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>33</v>
+      <c r="B34" t="s">
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1266,16 +1410,19 @@
       <c r="E34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>34</v>
+      <c r="B35" t="s">
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1284,15 +1431,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>35</v>
+      <c r="B36" t="s">
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1301,15 +1448,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>36</v>
+      <c r="B37" t="s">
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1318,15 +1465,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>37</v>
+      <c r="B38" t="s">
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1335,15 +1482,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>38</v>
+      <c r="B39" t="s">
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1351,16 +1498,19 @@
       <c r="E39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>39</v>
+      <c r="B40" t="s">
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1368,16 +1518,22 @@
       <c r="E40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>40</v>
+      <c r="B41" t="s">
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1385,16 +1541,19 @@
       <c r="E41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>41</v>
+      <c r="B42" t="s">
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1402,16 +1561,19 @@
       <c r="E42">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>42</v>
+      <c r="B43" t="s">
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1420,15 +1582,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>43</v>
+      <c r="B44" t="s">
+        <v>23</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1436,16 +1598,19 @@
       <c r="E44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>44</v>
+      <c r="B45" t="s">
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1454,15 +1619,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>45</v>
+      <c r="B46" t="s">
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1471,15 +1636,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>46</v>
+      <c r="B47" t="s">
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -1488,15 +1653,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>47</v>
+      <c r="B48" t="s">
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -1505,15 +1670,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>48</v>
+      <c r="B49" t="s">
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -1521,16 +1686,19 @@
       <c r="E49">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>49</v>
+      <c r="B50" t="s">
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -1538,16 +1706,19 @@
       <c r="E50">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G50" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>50</v>
+      <c r="B51" t="s">
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -1556,15 +1727,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>51</v>
+      <c r="B52" t="s">
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -1572,16 +1743,19 @@
       <c r="E52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>52</v>
+      <c r="B53" t="s">
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -1590,15 +1764,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>53</v>
+      <c r="B54" t="s">
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1606,16 +1780,19 @@
       <c r="E54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G54" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>54</v>
+      <c r="B55" t="s">
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -1623,16 +1800,19 @@
       <c r="E55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>55</v>
+      <c r="B56" t="s">
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -1641,15 +1821,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>56</v>
+      <c r="B57" t="s">
+        <v>27</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1658,15 +1838,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>57</v>
+      <c r="B58" t="s">
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -1675,15 +1855,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>58</v>
+      <c r="B59" t="s">
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -1692,15 +1872,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>59</v>
+      <c r="B60" t="s">
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -1708,16 +1888,19 @@
       <c r="E60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>60</v>
+      <c r="B61" t="s">
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -1726,15 +1909,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>61</v>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -1743,15 +1926,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>62</v>
+      <c r="B63" t="s">
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -1760,15 +1943,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>63</v>
+      <c r="B64" t="s">
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -1777,15 +1960,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>64</v>
+      <c r="B65" t="s">
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -1794,15 +1977,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>65</v>
+      <c r="B66" t="s">
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -1811,15 +1994,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>66</v>
+      <c r="B67" t="s">
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -1827,16 +2010,19 @@
       <c r="E67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G67" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>67</v>
+      <c r="B68" t="s">
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -1845,15 +2031,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>68</v>
+      <c r="B69" t="s">
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -1862,15 +2048,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>69</v>
+      <c r="B70" t="s">
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -1879,15 +2065,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>70</v>
+      <c r="B71" t="s">
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -1896,15 +2082,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>71</v>
+      <c r="B72" t="s">
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -1913,15 +2099,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>72</v>
+      <c r="B73" t="s">
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -1930,15 +2116,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>73</v>
+      <c r="B74" t="s">
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -1947,15 +2133,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>74</v>
+      <c r="B75" t="s">
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -1964,15 +2150,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>75</v>
+      <c r="B76" t="s">
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -1981,15 +2167,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>76</v>
+      <c r="B77" t="s">
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -1998,15 +2184,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>77</v>
+      <c r="B78" t="s">
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -2015,15 +2201,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>78</v>
+      <c r="B79" t="s">
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -2032,15 +2218,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>79</v>
+      <c r="B80" t="s">
+        <v>22</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -2048,16 +2234,19 @@
       <c r="E80">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>80</v>
+      <c r="B81" t="s">
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -2065,16 +2254,19 @@
       <c r="E81">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G81" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>81</v>
+      <c r="B82" t="s">
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -2082,16 +2274,19 @@
       <c r="E82">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>82</v>
+      <c r="B83" t="s">
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2099,16 +2294,19 @@
       <c r="E83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>83</v>
+      <c r="B84" t="s">
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -2116,16 +2314,19 @@
       <c r="E84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -2134,15 +2335,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -2151,15 +2352,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -2168,15 +2369,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -2185,15 +2386,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -2202,15 +2403,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -2219,15 +2420,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -2236,15 +2437,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D92">
         <v>6</v>

--- a/data/TT/Team-2020.xlsx
+++ b/data/TT/Team-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430E8136-7AD7-412C-A859-D020846307F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E040DF-0DAD-4185-BA97-3DBB25F37BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19632" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Rangers</t>
   </si>
   <si>
-    <t>Red Socks</t>
-  </si>
-  <si>
     <t>Phillies</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Rangers-W-Major</t>
   </si>
   <si>
-    <t>Red Socks-W-Major</t>
-  </si>
-  <si>
     <t>Astros-E-Minor</t>
   </si>
   <si>
@@ -368,70 +362,73 @@
     <t>Cubs-E-ITB</t>
   </si>
   <si>
-    <t>2-E-ITB</t>
-  </si>
-  <si>
-    <t>3-E-ITB</t>
-  </si>
-  <si>
-    <t>4-E-ITB</t>
-  </si>
-  <si>
-    <t>5-E-ITB</t>
-  </si>
-  <si>
-    <t>6-E-ITB</t>
-  </si>
-  <si>
-    <t>7-E-ITB</t>
-  </si>
-  <si>
-    <t>8-E-ITB</t>
-  </si>
-  <si>
-    <t>9-E-ITB</t>
-  </si>
-  <si>
     <t>Indians-E-Major</t>
   </si>
   <si>
     <t>boDate</t>
   </si>
   <si>
-    <t>317,319,331,403,407,408,409,506</t>
-  </si>
-  <si>
     <t>418,419,420,421</t>
   </si>
   <si>
-    <t>302,330,331</t>
-  </si>
-  <si>
     <t>315,316,317</t>
   </si>
   <si>
-    <t>326,328,508,509</t>
-  </si>
-  <si>
-    <t>316,323,330,406,413,420,427,504,511,518</t>
-  </si>
-  <si>
-    <t>316,323,330,406,413,420,427,504,511,518,317,324,331,407,414,421,428,505,512,519,316,317,318</t>
-  </si>
-  <si>
     <t>429,502</t>
   </si>
   <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>316,317</t>
-  </si>
-  <si>
     <t>316</t>
   </si>
   <si>
-    <t>502,509</t>
+    <t>317,319,331,403,407,408,429,506</t>
+  </si>
+  <si>
+    <t>328,330,331</t>
+  </si>
+  <si>
+    <t>323,328,508,509</t>
+  </si>
+  <si>
+    <t>316,323,330,406,413,420,427,504,511</t>
+  </si>
+  <si>
+    <t>316,323,330,406,413,420,427,504,511,317,324,331,407,414,421,428,505,512,318</t>
+  </si>
+  <si>
+    <t>321,502</t>
+  </si>
+  <si>
+    <t>316,317,321</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Astros-E-ITB</t>
+  </si>
+  <si>
+    <t>Blue Jays-E-ITB</t>
+  </si>
+  <si>
+    <t>Marlins-E-ITB</t>
+  </si>
+  <si>
+    <t>Mets-E-ITB</t>
+  </si>
+  <si>
+    <t>Rangers-E-ITB</t>
+  </si>
+  <si>
+    <t>Tigers-E-ITB</t>
+  </si>
+  <si>
+    <t>Yankees-E-ITB</t>
+  </si>
+  <si>
+    <t>Red Sox-W-Major</t>
+  </si>
+  <si>
+    <t>Royals-E-ITB</t>
   </si>
 </sst>
 </file>
@@ -459,12 +456,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -479,11 +482,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,17 +794,17 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,10 +824,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -831,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -840,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -848,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -857,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -865,7 +869,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -877,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -885,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -894,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -902,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -911,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -919,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -928,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -936,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -945,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -953,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -962,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -970,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -979,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -987,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -995,11 +999,11 @@
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1019,10 +1023,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1039,15 +1043,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1056,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1076,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1096,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1113,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1130,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1147,7 +1151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1164,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1181,15 +1185,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1198,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1215,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1232,15 +1236,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1249,15 +1253,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1269,18 +1273,18 @@
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1289,7 +1293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1297,7 +1301,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1309,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1326,7 +1330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1343,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1360,15 +1364,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1377,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1394,15 +1398,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1411,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1431,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1448,7 +1452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1465,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1482,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1490,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1499,10 +1503,10 @@
         <v>5</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1522,18 +1526,18 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1545,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1565,7 +1569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1582,15 +1586,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1599,10 +1603,10 @@
         <v>6</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1619,7 +1623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1636,15 +1640,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -1653,15 +1657,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -1670,7 +1674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -1690,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -1707,10 +1711,10 @@
         <v>7</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -1727,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -1744,18 +1748,18 @@
         <v>7</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -1764,15 +1768,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1780,19 +1784,16 @@
       <c r="E54">
         <v>7</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -1804,15 +1805,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -1821,15 +1822,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1838,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -1855,15 +1856,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -1872,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -1891,16 +1892,19 @@
       <c r="F60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G60" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -1909,7 +1913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1917,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -1926,7 +1930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -1943,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1951,7 +1955,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -1960,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1968,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D65">
         <v>4</v>
@@ -1977,15 +1981,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -1994,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2002,7 +2006,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2011,18 +2015,18 @@
         <v>8</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -2031,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -2048,7 +2052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2056,7 +2060,7 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -2065,15 +2069,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -2082,7 +2086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -2099,7 +2103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -2116,7 +2120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -2133,15 +2137,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -2150,15 +2154,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -2167,7 +2171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -2183,16 +2187,19 @@
       <c r="E77">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G77" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -2201,7 +2208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2209,7 +2216,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -2218,15 +2225,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -2238,15 +2245,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -2255,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2266,7 +2273,7 @@
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -2274,11 +2281,11 @@
       <c r="E82">
         <v>10</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2286,7 +2293,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2298,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2306,7 +2313,7 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -2318,15 +2325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>2</v>
+      <c r="B85" t="s">
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -2335,15 +2342,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>3</v>
+      <c r="B86" t="s">
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -2352,15 +2359,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>4</v>
+      <c r="B87" t="s">
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -2369,15 +2376,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>5</v>
+      <c r="B88" t="s">
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -2386,15 +2393,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>6</v>
+      <c r="B89" t="s">
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -2403,15 +2410,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>7</v>
+      <c r="B90" t="s">
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -2420,15 +2427,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>8</v>
+      <c r="B91" t="s">
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -2437,15 +2444,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>9</v>
+      <c r="B92" t="s">
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D92">
         <v>6</v>

--- a/data/TT/Team-2020.xlsx
+++ b/data/TT/Team-2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E040DF-0DAD-4185-BA97-3DBB25F37BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7499B7-2A46-4A54-A0DB-38F74EB63286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="135">
   <si>
     <t>id</t>
   </si>
@@ -119,252 +119,6 @@
     <t>Blue Jays</t>
   </si>
   <si>
-    <t>Royals-E-Major</t>
-  </si>
-  <si>
-    <t>Tigers-E-Major</t>
-  </si>
-  <si>
-    <t>Yankees-E-Major</t>
-  </si>
-  <si>
-    <t>Astros-E-Major</t>
-  </si>
-  <si>
-    <t>Cubs-E-Major</t>
-  </si>
-  <si>
-    <t>Dodgers-E-Major</t>
-  </si>
-  <si>
-    <t>Mets-E-Major</t>
-  </si>
-  <si>
-    <t>Cardinals-W-Major</t>
-  </si>
-  <si>
-    <t>Giants-W-Major</t>
-  </si>
-  <si>
-    <t>Nationals-W-Major</t>
-  </si>
-  <si>
-    <t>Rangers-W-Major</t>
-  </si>
-  <si>
-    <t>Astros-E-Minor</t>
-  </si>
-  <si>
-    <t>Cardinals-E-Minor</t>
-  </si>
-  <si>
-    <t>Cubs-E-Minor</t>
-  </si>
-  <si>
-    <t>Dodgers-E-Minor</t>
-  </si>
-  <si>
-    <t>Giants-E-Minor</t>
-  </si>
-  <si>
-    <t>Indians-E-Minor</t>
-  </si>
-  <si>
-    <t>Mets-E-Minor</t>
-  </si>
-  <si>
-    <t>Phillies-E-Minor</t>
-  </si>
-  <si>
-    <t>Royals-E-Minor</t>
-  </si>
-  <si>
-    <t>Tigers-E-Minor</t>
-  </si>
-  <si>
-    <t>Braves-W-Minor</t>
-  </si>
-  <si>
-    <t>D'Backs-W-Minor</t>
-  </si>
-  <si>
-    <t>Marlins-W-Minor</t>
-  </si>
-  <si>
-    <t>Nationals-W-Minor</t>
-  </si>
-  <si>
-    <t>Rangers-W-Minor</t>
-  </si>
-  <si>
-    <t>Yankees-W-Minor</t>
-  </si>
-  <si>
-    <t>Astros-E-PeeWee</t>
-  </si>
-  <si>
-    <t>Braves-E-PeeWee</t>
-  </si>
-  <si>
-    <t>Cardinals-E-PeeWee</t>
-  </si>
-  <si>
-    <t>D'Backs-E-PeeWee</t>
-  </si>
-  <si>
-    <t>Dodgers-E-PeeWee</t>
-  </si>
-  <si>
-    <t>Giants-E-PeeWee</t>
-  </si>
-  <si>
-    <t>Indians-E-PeeWee</t>
-  </si>
-  <si>
-    <t>Mets-E-PeeWee</t>
-  </si>
-  <si>
-    <t>Yankees-E-PeeWee</t>
-  </si>
-  <si>
-    <t>Cubs-W-PeeWee</t>
-  </si>
-  <si>
-    <t>Marlins-W-PeeWee</t>
-  </si>
-  <si>
-    <t>Nationals-W-PeeWee</t>
-  </si>
-  <si>
-    <t>Rangers-W-PeeWee</t>
-  </si>
-  <si>
-    <t>Red Sox-W-PeeWee</t>
-  </si>
-  <si>
-    <t>Royals-W-PeeWee</t>
-  </si>
-  <si>
-    <t>Tigers-W-PeeWee</t>
-  </si>
-  <si>
-    <t>Braves-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Brewers-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Cardinals-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Cubs-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Dodgers-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Giants-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Marlins-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Orioles-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Phillies-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Reds-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Rockies-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>Tigers-E-CoachPitch</t>
-  </si>
-  <si>
-    <t>A's-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>Astros-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>D'Backs-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>Indians-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>Mets-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>Nationals-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>Rangers-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>Red Sox-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>Yankees-W-CoachPitch</t>
-  </si>
-  <si>
-    <t>A's-E-TBall</t>
-  </si>
-  <si>
-    <t>Astros-E-TBall</t>
-  </si>
-  <si>
-    <t>Cubs-E-TBall</t>
-  </si>
-  <si>
-    <t>D'Backs-E-TBall</t>
-  </si>
-  <si>
-    <t>Dodgers-E-TBall</t>
-  </si>
-  <si>
-    <t>Giants-E-TBall</t>
-  </si>
-  <si>
-    <t>Nationals-E-TBall</t>
-  </si>
-  <si>
-    <t>Phillies-E-TBall</t>
-  </si>
-  <si>
-    <t>Rockies-E-TBall</t>
-  </si>
-  <si>
-    <t>Royals-E-TBall</t>
-  </si>
-  <si>
-    <t>Blue Jays-W-TBall</t>
-  </si>
-  <si>
-    <t>Cardinals-W-TBall</t>
-  </si>
-  <si>
-    <t>Marlins-W-TBall</t>
-  </si>
-  <si>
-    <t>Orioles-W-TBall</t>
-  </si>
-  <si>
-    <t>Rangers-W-TBall</t>
-  </si>
-  <si>
-    <t>Tigers-W-TBall</t>
-  </si>
-  <si>
-    <t>Cubs-E-ITB</t>
-  </si>
-  <si>
-    <t>Indians-E-Major</t>
-  </si>
-  <si>
     <t>boDate</t>
   </si>
   <si>
@@ -404,31 +158,283 @@
     <t>321</t>
   </si>
   <si>
-    <t>Astros-E-ITB</t>
-  </si>
-  <si>
-    <t>Blue Jays-E-ITB</t>
-  </si>
-  <si>
-    <t>Marlins-E-ITB</t>
-  </si>
-  <si>
-    <t>Mets-E-ITB</t>
-  </si>
-  <si>
-    <t>Rangers-E-ITB</t>
-  </si>
-  <si>
-    <t>Tigers-E-ITB</t>
-  </si>
-  <si>
-    <t>Yankees-E-ITB</t>
-  </si>
-  <si>
-    <t>Red Sox-W-Major</t>
-  </si>
-  <si>
-    <t>Royals-E-ITB</t>
+    <t>316,317,318,319</t>
+  </si>
+  <si>
+    <t>Major Indians NL</t>
+  </si>
+  <si>
+    <t>Major Royals NL</t>
+  </si>
+  <si>
+    <t>Major Tigers NL</t>
+  </si>
+  <si>
+    <t>Major Yankees NL</t>
+  </si>
+  <si>
+    <t>Major Astros NL</t>
+  </si>
+  <si>
+    <t>Major Cubs NL</t>
+  </si>
+  <si>
+    <t>Major Dodgers NL</t>
+  </si>
+  <si>
+    <t>Major Mets NL</t>
+  </si>
+  <si>
+    <t>Major Cardinals AL</t>
+  </si>
+  <si>
+    <t>Major Giants AL</t>
+  </si>
+  <si>
+    <t>Major Nationals AL</t>
+  </si>
+  <si>
+    <t>Major Rangers AL</t>
+  </si>
+  <si>
+    <t>Major Red Sox AL</t>
+  </si>
+  <si>
+    <t>Minor Astros NL</t>
+  </si>
+  <si>
+    <t>Minor Cardinals NL</t>
+  </si>
+  <si>
+    <t>Minor Cubs NL</t>
+  </si>
+  <si>
+    <t>Minor Dodgers NL</t>
+  </si>
+  <si>
+    <t>Minor Giants NL</t>
+  </si>
+  <si>
+    <t>Minor Indians NL</t>
+  </si>
+  <si>
+    <t>Minor Mets NL</t>
+  </si>
+  <si>
+    <t>Minor Phillies NL</t>
+  </si>
+  <si>
+    <t>Minor Royals NL</t>
+  </si>
+  <si>
+    <t>Minor Tigers NL</t>
+  </si>
+  <si>
+    <t>Minor Braves AL</t>
+  </si>
+  <si>
+    <t>Minor D'Backs AL</t>
+  </si>
+  <si>
+    <t>Minor Marlins AL</t>
+  </si>
+  <si>
+    <t>Minor Nationals AL</t>
+  </si>
+  <si>
+    <t>Minor Rangers AL</t>
+  </si>
+  <si>
+    <t>Minor Yankees AL</t>
+  </si>
+  <si>
+    <t>PW Astros NL</t>
+  </si>
+  <si>
+    <t>PW Braves NL</t>
+  </si>
+  <si>
+    <t>PW Cardinals NL</t>
+  </si>
+  <si>
+    <t>PW D'Backs NL</t>
+  </si>
+  <si>
+    <t>PW Dodgers NL</t>
+  </si>
+  <si>
+    <t>PW Giants NL</t>
+  </si>
+  <si>
+    <t>PW Indians NL</t>
+  </si>
+  <si>
+    <t>PW Mets NL</t>
+  </si>
+  <si>
+    <t>PW Yankees NL</t>
+  </si>
+  <si>
+    <t>PW Cubs AL</t>
+  </si>
+  <si>
+    <t>PW Marlins AL</t>
+  </si>
+  <si>
+    <t>PW Nationals AL</t>
+  </si>
+  <si>
+    <t>PW Rangers AL</t>
+  </si>
+  <si>
+    <t>PW Red Sox AL</t>
+  </si>
+  <si>
+    <t>PW Royals AL</t>
+  </si>
+  <si>
+    <t>PW Tigers AL</t>
+  </si>
+  <si>
+    <t>CP Braves NL</t>
+  </si>
+  <si>
+    <t>CP Brewers NL</t>
+  </si>
+  <si>
+    <t>CP Cardinals NL</t>
+  </si>
+  <si>
+    <t>CP Cubs NL</t>
+  </si>
+  <si>
+    <t>CP Dodgers NL</t>
+  </si>
+  <si>
+    <t>CP Giants NL</t>
+  </si>
+  <si>
+    <t>CP Marlins NL</t>
+  </si>
+  <si>
+    <t>CP Orioles NL</t>
+  </si>
+  <si>
+    <t>CP Phillies NL</t>
+  </si>
+  <si>
+    <t>CP Reds NL</t>
+  </si>
+  <si>
+    <t>CP Rockies NL</t>
+  </si>
+  <si>
+    <t>CP Tigers NL</t>
+  </si>
+  <si>
+    <t>CP A's AL</t>
+  </si>
+  <si>
+    <t>CP Astros AL</t>
+  </si>
+  <si>
+    <t>CP D'Backs AL</t>
+  </si>
+  <si>
+    <t>CP Indians AL</t>
+  </si>
+  <si>
+    <t>CP Mets AL</t>
+  </si>
+  <si>
+    <t>CP Nationals AL</t>
+  </si>
+  <si>
+    <t>CP Rangers AL</t>
+  </si>
+  <si>
+    <t>CP Red Sox AL</t>
+  </si>
+  <si>
+    <t>CP Yankees AL</t>
+  </si>
+  <si>
+    <t>TB A's NL</t>
+  </si>
+  <si>
+    <t>TB Astros NL</t>
+  </si>
+  <si>
+    <t>TB Cubs NL</t>
+  </si>
+  <si>
+    <t>TB D'Backs NL</t>
+  </si>
+  <si>
+    <t>TB Dodgers NL</t>
+  </si>
+  <si>
+    <t>TB Giants NL</t>
+  </si>
+  <si>
+    <t>TB Nationals NL</t>
+  </si>
+  <si>
+    <t>TB Phillies NL</t>
+  </si>
+  <si>
+    <t>TB Rockies NL</t>
+  </si>
+  <si>
+    <t>TB Royals NL</t>
+  </si>
+  <si>
+    <t>TB Blue Jays AL</t>
+  </si>
+  <si>
+    <t>TB Cardinals AL</t>
+  </si>
+  <si>
+    <t>TB Marlins AL</t>
+  </si>
+  <si>
+    <t>TB Orioles AL</t>
+  </si>
+  <si>
+    <t>TB Rangers AL</t>
+  </si>
+  <si>
+    <t>TB Tigers AL</t>
+  </si>
+  <si>
+    <t>ITB Cubs NL</t>
+  </si>
+  <si>
+    <t>ITB Astros NL</t>
+  </si>
+  <si>
+    <t>ITB Blue Jays NL</t>
+  </si>
+  <si>
+    <t>ITB Marlins NL</t>
+  </si>
+  <si>
+    <t>ITB Mets NL</t>
+  </si>
+  <si>
+    <t>ITB Rangers NL</t>
+  </si>
+  <si>
+    <t>ITB Tigers NL</t>
+  </si>
+  <si>
+    <t>ITB Yankees NL</t>
+  </si>
+  <si>
+    <t>ITB Royals NL</t>
+  </si>
+  <si>
+    <t>320,327,403,410,417,424,501,508,515</t>
   </si>
 </sst>
 </file>
@@ -794,8 +800,8 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -835,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -852,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -869,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -889,7 +895,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -906,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -923,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -940,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -957,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -974,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -991,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1011,7 +1017,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1023,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1034,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1051,7 +1057,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1060,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1071,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1080,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1091,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1108,7 +1114,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1125,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1142,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1159,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1176,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1193,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1210,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1227,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1244,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1261,7 +1267,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1273,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1284,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1301,7 +1307,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1321,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1338,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1355,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1372,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1389,7 +1395,7 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1406,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1415,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1426,7 +1432,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1443,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1460,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1477,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1494,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -1503,7 +1509,7 @@
         <v>5</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -1514,7 +1520,7 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -1526,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -1537,7 +1543,7 @@
         <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1547,6 +1553,9 @@
       </c>
       <c r="F41">
         <v>2</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -1577,7 +1586,7 @@
         <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -1594,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -1603,7 +1612,7 @@
         <v>6</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -1614,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1631,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1648,7 +1657,7 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -1665,7 +1674,7 @@
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -1682,7 +1691,7 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>4</v>
@@ -1702,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D50">
         <v>4</v>
@@ -1711,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -1722,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -1739,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -1748,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -1759,7 +1768,7 @@
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -1776,7 +1785,7 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D54">
         <v>4</v>
@@ -1793,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -1813,7 +1822,7 @@
         <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -1830,7 +1839,7 @@
         <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1847,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -1864,7 +1873,7 @@
         <v>27</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -1881,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -1893,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -1904,7 +1913,7 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D61">
         <v>4</v>
@@ -1921,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D62">
         <v>4</v>
@@ -1938,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D63">
         <v>4</v>
@@ -1955,7 +1964,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -1972,13 +1981,16 @@
         <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65">
         <v>8</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -1989,7 +2001,7 @@
         <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D66">
         <v>4</v>
@@ -2006,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2015,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -2026,7 +2038,7 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D68">
         <v>5</v>
@@ -2043,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -2060,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -2077,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D71">
         <v>5</v>
@@ -2094,7 +2106,7 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -2111,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -2128,7 +2140,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -2145,7 +2157,7 @@
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -2162,7 +2174,7 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -2179,7 +2191,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -2188,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -2199,7 +2211,7 @@
         <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -2216,7 +2228,7 @@
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -2233,7 +2245,7 @@
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -2243,6 +2255,9 @@
       </c>
       <c r="F80">
         <v>2</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -2253,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -2262,7 +2277,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -2273,7 +2288,7 @@
         <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D82">
         <v>5</v>
@@ -2293,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2303,6 +2318,9 @@
       </c>
       <c r="F83">
         <v>7</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -2313,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -2333,7 +2351,7 @@
         <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D85">
         <v>6</v>
@@ -2350,7 +2368,7 @@
         <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D86">
         <v>6</v>
@@ -2367,7 +2385,7 @@
         <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -2384,7 +2402,7 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -2401,7 +2419,7 @@
         <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -2418,7 +2436,7 @@
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D90">
         <v>6</v>
@@ -2435,7 +2453,7 @@
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -2452,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D92">
         <v>6</v>
